--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -74,29 +74,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -12,7 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>2014-11-12</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -83,22 +95,22 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -86,30 +86,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1"/>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -12,18 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
-    <t>admin</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>12:30</t>
   </si>
   <si>
     <t>office</t>
   </si>
   <si>
-    <t>2014-11-12</t>
+    <t>120.0</t>
   </si>
   <si>
     <t>2hrs</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>hfhf</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>77.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -86,31 +104,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -12,37 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>2hrs</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>hfhf</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +30,21 @@
   </si>
   <si>
     <t>Time Taken</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Copy Room</t>
+  </si>
+  <si>
+    <t>2014-11-12</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -104,50 +89,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>2012-12-12</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>3hrs</t>
   </si>
 </sst>
 </file>
@@ -89,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,6 +144,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -32,28 +32,25 @@
     <t>Time Taken</t>
   </si>
   <si>
+    <t>Total Time</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>Copy Room</t>
   </si>
   <si>
-    <t>2014-11-12</t>
+    <t>2021-11-01</t>
   </si>
   <si>
-    <t>12:30</t>
+    <t>13:15</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1hr</t>
   </si>
   <si>
-    <t>2012-12-12</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>3hrs</t>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,45 +120,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -41,16 +41,16 @@
     <t>Copy Room</t>
   </si>
   <si>
-    <t>2021-11-01</t>
+    <t>2014-11-12</t>
   </si>
   <si>
-    <t>13:15</t>
+    <t>12:30</t>
   </si>
   <si>
-    <t>1hr</t>
+    <t>2</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>5.0</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,10 +125,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
         <v>999.0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="G2" t="n">
         <v>999.0</v>
       </c>
     </row>
@@ -136,7 +151,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
         <v>999.0</v>
       </c>
     </row>

--- a/Individual Performance Report.xlsx
+++ b/Individual Performance Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2030-03-21</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t>Total effort:</t>
@@ -95,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,15 +153,38 @@
         <v>999.0</v>
       </c>
       <c r="G2" t="n">
-        <v>999.0</v>
+        <v>1033.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.0</v>
+      </c>
       <c r="G3" t="n">
-        <v>999.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1033.0</v>
       </c>
     </row>
   </sheetData>
